--- a/YSR_PS_BankDeposit.xlsx
+++ b/YSR_PS_BankDeposit.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yardi365-my.sharepoint.com/personal/beril_pehlivan_yardi_com/Documents/Storage/Public Storage/Bank Deposit YSR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{7B81CB73-3373-4857-ACCC-977A845A7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B37CB31-FF4A-45AE-8960-5F2535A1AA7D}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{7B81CB73-3373-4857-ACCC-977A845A7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695486B3-D996-40F9-9E1E-80CB3BE25ECE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B63DC34-0586-4530-A387-FE773E15A224}"/>
+    <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8B63DC34-0586-4530-A387-FE773E15A224}"/>
   </bookViews>
   <sheets>
     <sheet name="PS" sheetId="1" r:id="rId1"/>
+    <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">Bank Deposit </t>
   </si>
@@ -93,6 +95,12 @@
   </si>
   <si>
     <t>*Check  deposited using ACH are excluded from this report</t>
+  </si>
+  <si>
+    <t>&amp;=display.PaymentType(group:repeat)</t>
+  </si>
+  <si>
+    <t>&amp;=subtotal9:display.PaymentType</t>
   </si>
 </sst>
 </file>
@@ -584,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2F4DB9-6383-4A6C-8BF5-AEE0D4F9DF2B}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:E3"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,34 +691,39 @@
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
@@ -729,4 +742,31 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298A4370-E61D-4D78-BFD5-7B82C2FB18D0}">
+  <dimension ref="B12:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/YSR_PS_BankDeposit.xlsx
+++ b/YSR_PS_BankDeposit.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yardi365-my.sharepoint.com/personal/beril_pehlivan_yardi_com/Documents/Storage/Public Storage/Bank Deposit YSR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BerilP\repos\PSC Bank Deposit YSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{7B81CB73-3373-4857-ACCC-977A845A7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695486B3-D996-40F9-9E1E-80CB3BE25ECE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205940BF-B55D-43EB-988C-E519043E0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8B63DC34-0586-4530-A387-FE773E15A224}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B63DC34-0586-4530-A387-FE773E15A224}"/>
   </bookViews>
   <sheets>
     <sheet name="PS" sheetId="1" r:id="rId1"/>
-    <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,26 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Bank Deposit </t>
   </si>
   <si>
-    <t>&amp;=display.PropertyName</t>
-  </si>
-  <si>
-    <t>&amp;=display.StreetAddress</t>
-  </si>
-  <si>
-    <t>&amp;=display.ReportDateRange</t>
-  </si>
-  <si>
-    <t>&amp;=display.StreetAddress2</t>
-  </si>
-  <si>
-    <t>&amp;=display.Country</t>
-  </si>
-  <si>
     <t>Account #:</t>
   </si>
   <si>
@@ -85,22 +68,40 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>&amp;=SUMIF(display.PaymentType, "Check", display.sTotalAmount)</t>
-  </si>
-  <si>
-    <t>&amp;=SUMIF(display.PaymentType, "Cash", display.sTotalAmount)</t>
-  </si>
-  <si>
-    <t>&amp;=SUM(display.sTotalAmount)</t>
-  </si>
-  <si>
     <t>*Check  deposited using ACH are excluded from this report</t>
   </si>
   <si>
-    <t>&amp;=display.PaymentType(group:repeat)</t>
-  </si>
-  <si>
-    <t>&amp;=subtotal9:display.PaymentType</t>
+    <t>&amp;=display.PaymentType(group:repeat, skip:2)</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=SUMIF(A13:A{-2}, "Cash", D13:D{-2})</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=SUMIF(A13:A{-1}, "Check", D13:D{-1})</t>
+  </si>
+  <si>
+    <t>&amp;=header.ReportDateRange</t>
+  </si>
+  <si>
+    <t>&amp;=header.Property_Code</t>
+  </si>
+  <si>
+    <t>&amp;=header.PropertyName</t>
+  </si>
+  <si>
+    <t>&amp;=header.StreetAddress</t>
+  </si>
+  <si>
+    <t>&amp;=header.StreetAddress2</t>
+  </si>
+  <si>
+    <t>&amp;=header.Country</t>
+  </si>
+  <si>
+    <t>&amp;=display.Property_Code</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=SUM(D{-2}:D{-1})</t>
   </si>
 </sst>
 </file>
@@ -110,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +156,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -222,9 +237,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -232,13 +246,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -257,6 +280,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,11 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2F4DB9-6383-4A6C-8BF5-AEE0D4F9DF2B}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,167 +635,141 @@
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:5" ht="25" x14ac:dyDescent="0.5">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.5">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="13" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298A4370-E61D-4D78-BFD5-7B82C2FB18D0}">
-  <dimension ref="B12:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>